--- a/risk parity portfolio/data/stats.xlsx
+++ b/risk parity portfolio/data/stats.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Valyrian\risk parity portfolio\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>收益率</t>
   </si>
@@ -50,21 +55,21 @@
   </si>
   <si>
     <t>风险平价组合</t>
+  </si>
+  <si>
+    <t>相对上期变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00%"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -80,6 +85,13 @@
       <color theme="1"/>
       <name val="楷体"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -114,19 +126,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -168,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +255,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,17 +431,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="A1:G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -436,119 +461,137 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>-0.2299110035986733</v>
+        <v>-0.21837235548095391</v>
       </c>
       <c r="C2" s="3">
-        <v>0.1957403049471075</v>
+        <v>0.2005770294405313</v>
       </c>
       <c r="D2" s="4">
-        <v>-1.82260639637745</v>
+        <v>-1.580799612177602</v>
       </c>
       <c r="E2" s="3">
-        <v>0.02343265504074825</v>
+        <v>2.2708072520696669E-2</v>
       </c>
       <c r="F2" s="3">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.0998123275560977</v>
+        <v>-0.1242207749885947</v>
       </c>
       <c r="C3" s="3">
-        <v>0.1860394533110432</v>
+        <v>0.19645173605167521</v>
       </c>
       <c r="D3" s="4">
-        <v>-0.7207015031595809</v>
+        <v>-0.82583637873085891</v>
       </c>
       <c r="E3" s="3">
-        <v>0.02280616395787546</v>
+        <v>2.2293188164242191E-2</v>
       </c>
       <c r="F3" s="3">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>0.08048668279966043</v>
+        <v>7.8852188613896423E-2</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1420555358796963</v>
+        <v>0.13970499037612841</v>
       </c>
       <c r="D4" s="4">
-        <v>0.8559611151719886</v>
+        <v>0.81411059498367966</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03683850293578376</v>
+        <v>3.6851746248412413E-2</v>
       </c>
       <c r="F4" s="3">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>0.05156692067878543</v>
+        <v>5.5384599414776137E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>0.01188621937640594</v>
+        <v>1.1694946227372291E-2</v>
       </c>
       <c r="D5" s="4">
-        <v>6.098294399760582</v>
+        <v>6.3194357291406069</v>
       </c>
       <c r="E5" s="3">
-        <v>0.7820277367700903</v>
+        <v>0.78118713970506237</v>
       </c>
       <c r="F5" s="3">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>-0.02677655677655832</v>
+        <v>-2.2051282051283368E-2</v>
       </c>
       <c r="C6" s="3">
-        <v>0.06037315823982052</v>
+        <v>6.1813717807186808E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.6172723755060098</v>
+        <v>-0.46324652648582121</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1348949412955023</v>
+        <v>0.1369598533615865</v>
       </c>
       <c r="F6" s="3">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3">
-        <v>0.0281692152886992</v>
+        <v>2.9408138791302552E-2</v>
       </c>
       <c r="C7" s="3">
-        <v>0.001796583288590441</v>
+        <v>1.7817156913594531E-3</v>
       </c>
       <c r="D7" s="4">
-        <v>22.39671917036494</v>
+        <v>22.40377213742158</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -557,18 +600,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>0.03390915088192115</v>
+        <v>3.7310569508788083E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>0.01699941428415828</v>
+        <v>1.6839650197722648E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>2.833492404171706</v>
+        <v>2.9878879213006049</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -578,6 +621,40 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G6">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6DB9AFB8-D0CB-496B-B530-E5EBEE586D7B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6DB9AFB8-D0CB-496B-B530-E5EBEE586D7B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/risk parity portfolio/data/stats.xlsx
+++ b/risk parity portfolio/data/stats.xlsx
@@ -19,15 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>收益率</t>
-  </si>
-  <si>
-    <t>波动率</t>
-  </si>
-  <si>
-    <t>夏普率</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>收益率(周)</t>
+  </si>
+  <si>
+    <t>收益率(月)</t>
+  </si>
+  <si>
+    <t>收益率(年)</t>
+  </si>
+  <si>
+    <t>波动率(年)</t>
+  </si>
+  <si>
+    <t>夏普率(年)</t>
   </si>
   <si>
     <t>当前权重</t>
@@ -36,7 +42,10 @@
     <t>风险贡献</t>
   </si>
   <si>
-    <t>万得全A</t>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
   </si>
   <si>
     <t>恒生指数</t>
@@ -55,10 +64,6 @@
   </si>
   <si>
     <t>风险平价组合</t>
-  </si>
-  <si>
-    <t>相对上期变化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -432,19 +437,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="A1:G8"/>
+      <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -462,199 +470,222 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.1588621607665059E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-1.8188609219569999E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.20068814682463429</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.21968831584528509</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-1.137018148125158</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.288396785497728E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.4336833951520202E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-2.4970495955376149E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-0.22479906553392109</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.2189220261655796</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-1.3126026621071381</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.349902326498739E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.6757986187979217E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-1.732519326677173E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.1260550516976594</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.20621659582198551</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-0.695722150478291</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.5131243210392029E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.6118801950039341E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1.0851928433991411E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.0610298435448598E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.15238959334596899</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.31838518070651461</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.6835885121156439E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.81026140087881E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.0385262265786359E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.5619092545837532E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.1226229507839851E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6.9322146821040418</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.80338673904624303</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>-0.21837235548095391</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.2005770294405313</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-1.580799612177602</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.2708072520696669E-2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G2" s="3">
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>-0.1242207749885947</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.19645173605167521</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-0.82583637873085891</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.2293188164242191E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="B7" s="3">
+        <v>5.1862673484297517E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.287547849583472E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8.1318681318669483E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.340056480632833E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.18782599631686919</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.12826314150224391</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4.7549431013771398E-4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.1703435044158059E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.265719661810329E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.8761421283485561E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>21.057962858913051</v>
+      </c>
+      <c r="G8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>7.8852188613896423E-2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.13970499037612841</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.81411059498367966</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.6851746248412413E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5.5384599414776137E-2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.1694946227372291E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6.3194357291406069</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.78118713970506237</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-2.2051282051283368E-2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>6.1813717807186808E-2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-0.46324652648582121</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.1369598533615865</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2.9408138791302552E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.7817156913594531E-3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>22.40377213742158</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3.7310569508788083E-2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.6839650197722648E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2.9878879213006049</v>
-      </c>
-      <c r="E8" s="3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.9211175191842251E-3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0677497392353351E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.1868716405301767E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.6090532735071508E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.8529861698113299</v>
+      </c>
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H9" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G6">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6DB9AFB8-D0CB-496B-B530-E5EBEE586D7B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6DB9AFB8-D0CB-496B-B530-E5EBEE586D7B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G2:G6</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/risk parity portfolio/data/stats.xlsx
+++ b/risk parity portfolio/data/stats.xlsx
@@ -42,10 +42,10 @@
     <t>风险贡献</t>
   </si>
   <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
+    <t>沪深300价值</t>
+  </si>
+  <si>
+    <t>中证500低波</t>
   </si>
   <si>
     <t>恒生指数</t>
@@ -440,16 +440,17 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="6" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -481,22 +482,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>2.1588621607665059E-2</v>
+        <v>4.118487109903346E-2</v>
       </c>
       <c r="C2" s="3">
-        <v>-1.8188609219569999E-2</v>
+        <v>0.1870451968862199</v>
       </c>
       <c r="D2" s="3">
-        <v>-0.20068814682463429</v>
+        <v>0.2476400071303009</v>
       </c>
       <c r="E2" s="3">
-        <v>0.21968831584528509</v>
+        <v>0.22583615008726871</v>
       </c>
       <c r="F2" s="4">
-        <v>-1.137018148125158</v>
+        <v>6.0999906344893056</v>
       </c>
       <c r="G2" s="3">
-        <v>1.288396785497728E-2</v>
+        <v>1.440785983176167E-2</v>
       </c>
       <c r="H2" s="3">
         <v>8.3333333333333329E-2</v>
@@ -507,22 +508,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>2.4336833951520202E-2</v>
+        <v>7.9340478387646574E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>-2.4970495955376149E-2</v>
+        <v>0.25725591129375891</v>
       </c>
       <c r="D3" s="3">
-        <v>-0.22479906553392109</v>
+        <v>0.25905034647952202</v>
       </c>
       <c r="E3" s="3">
-        <v>0.2189220261655796</v>
+        <v>0.20491720570153529</v>
       </c>
       <c r="F3" s="4">
-        <v>-1.3126026621071381</v>
+        <v>6.9764934158820742</v>
       </c>
       <c r="G3" s="3">
-        <v>1.349902326498739E-2</v>
+        <v>1.6339851879382319E-2</v>
       </c>
       <c r="H3" s="3">
         <v>8.3333333333333329E-2</v>
@@ -533,22 +534,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>4.6757986187979217E-2</v>
+        <v>9.7421745468302401E-3</v>
       </c>
       <c r="C4" s="3">
-        <v>-1.732519326677173E-3</v>
+        <v>5.0456085389169347E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1260550516976594</v>
+        <v>0.13854188721857619</v>
       </c>
       <c r="E4" s="3">
-        <v>0.20621659582198551</v>
+        <v>0.1452000038827608</v>
       </c>
       <c r="F4" s="4">
-        <v>-0.695722150478291</v>
+        <v>5.5002447829276901</v>
       </c>
       <c r="G4" s="3">
-        <v>1.5131243210392029E-2</v>
+        <v>1.642308559352653E-2</v>
       </c>
       <c r="H4" s="3">
         <v>8.3333333333333329E-2</v>
@@ -559,22 +560,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>1.6118801950039341E-2</v>
+        <v>-7.495398190790592E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>-1.0851928433991411E-2</v>
+        <v>3.3718132821095807E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>3.0610298435448598E-2</v>
+        <v>0.11493961556719449</v>
       </c>
       <c r="E5" s="3">
-        <v>0.15238959334596899</v>
+        <v>0.14387658362094069</v>
       </c>
       <c r="F5" s="4">
-        <v>0.31838518070651461</v>
+        <v>4.6519678430454627</v>
       </c>
       <c r="G5" s="3">
-        <v>2.6835885121156439E-2</v>
+        <v>2.4668484559041061E-2</v>
       </c>
       <c r="H5" s="3">
         <v>8.3333333333333329E-2</v>
@@ -585,22 +586,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>1.81026140087881E-3</v>
+        <v>-1.2219838807968619E-3</v>
       </c>
       <c r="C6" s="3">
-        <v>9.0385262265786359E-3</v>
+        <v>2.16783597624115E-5</v>
       </c>
       <c r="D6" s="3">
-        <v>6.5619092545837532E-2</v>
+        <v>8.1184501654238961E-3</v>
       </c>
       <c r="E6" s="3">
-        <v>1.1226229507839851E-2</v>
+        <v>9.981654819095364E-3</v>
       </c>
       <c r="F6" s="4">
-        <v>6.9322146821040418</v>
+        <v>3.946701487189153</v>
       </c>
       <c r="G6" s="3">
-        <v>0.80338673904624303</v>
+        <v>0.78111451447014779</v>
       </c>
       <c r="H6" s="3">
         <v>0.33333333333333331</v>
@@ -611,22 +612,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>5.1862673484297517E-3</v>
+        <v>-2.3064364861579031E-2</v>
       </c>
       <c r="C7" s="3">
-        <v>3.287547849583472E-2</v>
+        <v>-1.9077845982142572E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>8.1318681318669483E-3</v>
+        <v>-1.1770906535488511E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>6.340056480632833E-2</v>
+        <v>6.8740207503474635E-2</v>
       </c>
       <c r="F7" s="4">
-        <v>0.18782599631686919</v>
+        <v>-1.1756496206101139</v>
       </c>
       <c r="G7" s="3">
-        <v>0.12826314150224391</v>
+        <v>0.14704620366614071</v>
       </c>
       <c r="H7" s="3">
         <v>0.33333333333333331</v>
@@ -637,19 +638,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>4.7549431013771398E-4</v>
+        <v>5.3408495377782472E-4</v>
       </c>
       <c r="C8" s="3">
-        <v>2.1703435044158059E-3</v>
+        <v>2.730380430981727E-3</v>
       </c>
       <c r="D8" s="3">
-        <v>3.265719661810329E-2</v>
+        <v>5.0383923537822284E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>1.8761421283485561E-3</v>
+        <v>1.9384461354610501E-3</v>
       </c>
       <c r="F8" s="4">
-        <v>21.057962858913051</v>
+        <v>10.993254219699571</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -663,19 +664,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>3.9211175191842251E-3</v>
+        <v>-2.518752750353848E-3</v>
       </c>
       <c r="C9" s="3">
-        <v>1.0677497392353351E-2</v>
+        <v>5.0721061009559856E-3</v>
       </c>
       <c r="D9" s="3">
-        <v>5.1868716405301767E-2</v>
+        <v>1.6300027778143319E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>1.6090532735071508E-2</v>
+        <v>1.4123744537002259E-2</v>
       </c>
       <c r="F9" s="4">
-        <v>3.8529861698113299</v>
+        <v>6.3112511736688992</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>

--- a/risk parity portfolio/data/stats.xlsx
+++ b/risk parity portfolio/data/stats.xlsx
@@ -440,17 +440,17 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H9"/>
+      <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -482,22 +482,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>4.118487109903346E-2</v>
+        <v>2.6807573897748679E-2</v>
       </c>
       <c r="C2" s="3">
-        <v>0.1870451968862199</v>
+        <v>0.10067405662000641</v>
       </c>
       <c r="D2" s="3">
-        <v>0.2476400071303009</v>
+        <v>0.232554154419959</v>
       </c>
       <c r="E2" s="3">
-        <v>0.22583615008726871</v>
+        <v>0.23980945108462651</v>
       </c>
       <c r="F2" s="4">
-        <v>6.0999906344893056</v>
+        <v>4.3901863168344333</v>
       </c>
       <c r="G2" s="3">
-        <v>1.440785983176167E-2</v>
+        <v>1.44662090122828E-2</v>
       </c>
       <c r="H2" s="3">
         <v>8.3333333333333329E-2</v>
@@ -508,22 +508,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>7.9340478387646574E-2</v>
+        <v>1.4982621871339591E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>0.25725591129375891</v>
+        <v>0.19118783433724881</v>
       </c>
       <c r="D3" s="3">
-        <v>0.25905034647952202</v>
+        <v>0.28632398477062432</v>
       </c>
       <c r="E3" s="3">
-        <v>0.20491720570153529</v>
+        <v>0.25643240113520849</v>
       </c>
       <c r="F3" s="4">
-        <v>6.9764934158820742</v>
+        <v>4.9485797563892504</v>
       </c>
       <c r="G3" s="3">
-        <v>1.6339851879382319E-2</v>
+        <v>1.584301646133798E-2</v>
       </c>
       <c r="H3" s="3">
         <v>8.3333333333333329E-2</v>
@@ -534,22 +534,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>9.7421745468302401E-3</v>
+        <v>1.7825944330372989E-2</v>
       </c>
       <c r="C4" s="3">
-        <v>5.0456085389169347E-2</v>
+        <v>2.8299031530070181E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>0.13854188721857619</v>
+        <v>0.14965260623740481</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1452000038827608</v>
+        <v>0.14880689685920831</v>
       </c>
       <c r="F4" s="4">
-        <v>5.5002447829276901</v>
+        <v>4.6403437939667613</v>
       </c>
       <c r="G4" s="3">
-        <v>1.642308559352653E-2</v>
+        <v>1.6665841472394739E-2</v>
       </c>
       <c r="H4" s="3">
         <v>8.3333333333333329E-2</v>
@@ -560,22 +560,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>-7.495398190790592E-3</v>
+        <v>4.7351045209398368E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>3.3718132821095807E-2</v>
+        <v>1.419542500089821E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.11493961556719449</v>
+        <v>0.13617272924762799</v>
       </c>
       <c r="E5" s="3">
-        <v>0.14387658362094069</v>
+        <v>0.1355426702756132</v>
       </c>
       <c r="F5" s="4">
-        <v>4.6519678430454627</v>
+        <v>4.649587959314375</v>
       </c>
       <c r="G5" s="3">
-        <v>2.4668484559041061E-2</v>
+        <v>2.4301083288107241E-2</v>
       </c>
       <c r="H5" s="3">
         <v>8.3333333333333329E-2</v>
@@ -586,22 +586,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>-1.2219838807968619E-3</v>
+        <v>1.425527286680328E-5</v>
       </c>
       <c r="C6" s="3">
-        <v>2.16783597624115E-5</v>
+        <v>-1.21600806594091E-3</v>
       </c>
       <c r="D6" s="3">
-        <v>8.1184501654238961E-3</v>
+        <v>9.5762639138599059E-3</v>
       </c>
       <c r="E6" s="3">
-        <v>9.981654819095364E-3</v>
+        <v>9.2005850786529182E-3</v>
       </c>
       <c r="F6" s="4">
-        <v>3.946701487189153</v>
+        <v>3.9978529036874551</v>
       </c>
       <c r="G6" s="3">
-        <v>0.78111451447014779</v>
+        <v>0.7868710728743854</v>
       </c>
       <c r="H6" s="3">
         <v>0.33333333333333331</v>
@@ -612,22 +612,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>-2.3064364861579031E-2</v>
+        <v>-9.478340237309979E-4</v>
       </c>
       <c r="C7" s="3">
-        <v>-1.9077845982142572E-2</v>
+        <v>-2.6476926760852341E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>-1.1770906535488511E-2</v>
+        <v>-3.5137034434140617E-5</v>
       </c>
       <c r="E7" s="3">
-        <v>6.8740207503474635E-2</v>
+        <v>6.9111502064345035E-2</v>
       </c>
       <c r="F7" s="4">
-        <v>-1.1756496206101139</v>
+        <v>-0.11845868815717529</v>
       </c>
       <c r="G7" s="3">
-        <v>0.14704620366614071</v>
+        <v>0.14185277689149181</v>
       </c>
       <c r="H7" s="3">
         <v>0.33333333333333331</v>
@@ -638,19 +638,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>5.3408495377782472E-4</v>
+        <v>5.1778780509303957E-4</v>
       </c>
       <c r="C8" s="3">
-        <v>2.730380430981727E-3</v>
+        <v>2.1091294127544291E-3</v>
       </c>
       <c r="D8" s="3">
-        <v>5.0383923537822284E-3</v>
+        <v>6.0820442097941907E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>1.9384461354610501E-3</v>
+        <v>1.7831637748742209E-3</v>
       </c>
       <c r="F8" s="4">
-        <v>10.993254219699571</v>
+        <v>11.33261425504838</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -664,19 +664,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>-2.518752750353848E-3</v>
+        <v>9.127102266712761E-4</v>
       </c>
       <c r="C9" s="3">
-        <v>5.0721061009559856E-3</v>
+        <v>3.7457215354974588E-4</v>
       </c>
       <c r="D9" s="3">
-        <v>1.6300027778143319E-2</v>
+        <v>2.010211034250875E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>1.4123744537002259E-2</v>
+        <v>1.393750264673382E-2</v>
       </c>
       <c r="F9" s="4">
-        <v>6.3112511736688992</v>
+        <v>6.3211554242004082</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>

--- a/risk parity portfolio/data/stats.xlsx
+++ b/risk parity portfolio/data/stats.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -440,17 +440,13 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="2" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -497,7 +493,7 @@
         <v>4.3901863168344333</v>
       </c>
       <c r="G2" s="3">
-        <v>1.44662090122828E-2</v>
+        <v>1.4466294721011821E-2</v>
       </c>
       <c r="H2" s="3">
         <v>8.3333333333333329E-2</v>
@@ -523,7 +519,7 @@
         <v>4.9485797563892504</v>
       </c>
       <c r="G3" s="3">
-        <v>1.584301646133798E-2</v>
+        <v>1.58429504136939E-2</v>
       </c>
       <c r="H3" s="3">
         <v>8.3333333333333329E-2</v>
@@ -549,7 +545,7 @@
         <v>4.6403437939667613</v>
       </c>
       <c r="G4" s="3">
-        <v>1.6665841472394739E-2</v>
+        <v>1.6665716254110171E-2</v>
       </c>
       <c r="H4" s="3">
         <v>8.3333333333333329E-2</v>
@@ -575,7 +571,7 @@
         <v>4.649587959314375</v>
       </c>
       <c r="G5" s="3">
-        <v>2.4301083288107241E-2</v>
+        <v>2.430124276894707E-2</v>
       </c>
       <c r="H5" s="3">
         <v>8.3333333333333329E-2</v>
@@ -601,7 +597,7 @@
         <v>3.9978529036874551</v>
       </c>
       <c r="G6" s="3">
-        <v>0.7868710728743854</v>
+        <v>0.78687119501838543</v>
       </c>
       <c r="H6" s="3">
         <v>0.33333333333333331</v>
@@ -627,7 +623,7 @@
         <v>-0.11845868815717529</v>
       </c>
       <c r="G7" s="3">
-        <v>0.14185277689149181</v>
+        <v>0.14185260082385159</v>
       </c>
       <c r="H7" s="3">
         <v>0.33333333333333331</v>
@@ -638,20 +634,18 @@
         <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>5.1778780509303957E-4</v>
+        <v>5.3410153061506094E-4</v>
       </c>
       <c r="C8" s="3">
-        <v>2.1091294127544291E-3</v>
+        <v>2.108001151472028E-3</v>
       </c>
       <c r="D8" s="3">
-        <v>6.0820442097941907E-3</v>
+        <v>6.6193941695309464E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>1.7831637748742209E-3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>11.33261425504838</v>
-      </c>
+        <v>1.7241753874635661E-3</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -664,19 +658,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>9.127102266712761E-4</v>
+        <v>9.1270916070995689E-4</v>
       </c>
       <c r="C9" s="3">
-        <v>3.7457215354974588E-4</v>
+        <v>3.7455986196111008E-4</v>
       </c>
       <c r="D9" s="3">
-        <v>2.010211034250875E-2</v>
+        <v>2.010210563867321E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>1.393750264673382E-2</v>
+        <v>1.393749849607015E-2</v>
       </c>
       <c r="F9" s="4">
-        <v>6.3211554242004082</v>
+        <v>6.3211556672216362</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>

--- a/risk parity portfolio/data/stats.xlsx
+++ b/risk parity portfolio/data/stats.xlsx
@@ -440,13 +440,13 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="6" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -634,18 +634,20 @@
         <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>5.3410153061506094E-4</v>
+        <v>5.2710836440406084E-4</v>
       </c>
       <c r="C8" s="3">
-        <v>2.108001151472028E-3</v>
+        <v>2.101013587392675E-3</v>
       </c>
       <c r="D8" s="3">
-        <v>6.6193941695309464E-3</v>
+        <v>7.1499916719690582E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>1.7241753874635661E-3</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>1.6725978724691361E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>11.70042393143976</v>
+      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
